--- a/REGULAR/CENRO/PALADAN, VICENTE.xlsx
+++ b/REGULAR/CENRO/PALADAN, VICENTE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="264">
   <si>
     <t>PERIOD</t>
   </si>
@@ -819,6 +819,12 @@
   </si>
   <si>
     <t>11/9,10/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>02/08,12/2024</t>
   </si>
 </sst>
 </file>
@@ -1525,8 +1531,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K660" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K660"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K661" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K661"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1855,12 +1861,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K660"/>
+  <dimension ref="A2:K661"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A604" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A607" activePane="bottomLeft"/>
       <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="E616" sqref="E616"/>
+      <selection pane="bottomLeft" activeCell="E620" sqref="E620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,7 +2027,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>128.16200000000009</v>
+        <v>131.91200000000009</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2031,7 +2037,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>106.625</v>
+        <v>110.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14915,15 +14921,17 @@
       <c r="B616" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C616" s="13"/>
+      <c r="C616" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D616" s="39">
         <v>2</v>
       </c>
       <c r="E616" s="9"/>
       <c r="F616" s="20"/>
-      <c r="G616" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G616" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H616" s="39"/>
       <c r="I616" s="9"/>
@@ -14937,13 +14945,15 @@
         <v>45261</v>
       </c>
       <c r="B617" s="20"/>
-      <c r="C617" s="13"/>
+      <c r="C617" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D617" s="39"/>
       <c r="E617" s="9"/>
       <c r="F617" s="20"/>
-      <c r="G617" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G617" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H617" s="39"/>
       <c r="I617" s="9"/>
@@ -14951,8 +14961,8 @@
       <c r="K617" s="20"/>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A618" s="40">
-        <v>45292</v>
+      <c r="A618" s="48" t="s">
+        <v>262</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -14970,16 +14980,18 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B619" s="20"/>
-      <c r="C619" s="13"/>
+      <c r="C619" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D619" s="39"/>
       <c r="E619" s="9"/>
       <c r="F619" s="20"/>
-      <c r="G619" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G619" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H619" s="39"/>
       <c r="I619" s="9"/>
@@ -14988,9 +15000,11 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B620" s="20"/>
+        <v>45323</v>
+      </c>
+      <c r="B620" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="C620" s="13"/>
       <c r="D620" s="39"/>
       <c r="E620" s="9"/>
@@ -15002,11 +15016,13 @@
       <c r="H620" s="39"/>
       <c r="I620" s="9"/>
       <c r="J620" s="11"/>
-      <c r="K620" s="20"/>
+      <c r="K620" s="20" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -15024,7 +15040,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -15042,7 +15058,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -15060,7 +15076,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -15078,7 +15094,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -15096,7 +15112,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -15114,7 +15130,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -15132,7 +15148,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -15150,7 +15166,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -15168,7 +15184,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -15186,7 +15202,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -15204,7 +15220,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -15222,7 +15238,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -15240,7 +15256,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -15258,7 +15274,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -15276,7 +15292,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -15294,7 +15310,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -15312,7 +15328,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -15330,7 +15346,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -15348,7 +15364,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -15366,7 +15382,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -15384,7 +15400,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -15402,7 +15418,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -15420,7 +15436,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -15438,7 +15454,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -15456,7 +15472,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -15474,7 +15490,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -15492,7 +15508,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -15509,7 +15525,9 @@
       <c r="K648" s="20"/>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A649" s="40"/>
+      <c r="A649" s="40">
+        <v>46204</v>
+      </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
       <c r="D649" s="39"/>
@@ -15685,20 +15703,36 @@
       <c r="K659" s="20"/>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A660" s="41"/>
-      <c r="B660" s="15"/>
-      <c r="C660" s="42"/>
-      <c r="D660" s="43"/>
+      <c r="A660" s="40"/>
+      <c r="B660" s="20"/>
+      <c r="C660" s="13"/>
+      <c r="D660" s="39"/>
       <c r="E660" s="9"/>
-      <c r="F660" s="15"/>
-      <c r="G660" s="42" t="str">
+      <c r="F660" s="20"/>
+      <c r="G660" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H660" s="43"/>
+      <c r="H660" s="39"/>
       <c r="I660" s="9"/>
-      <c r="J660" s="12"/>
-      <c r="K660" s="15"/>
+      <c r="J660" s="11"/>
+      <c r="K660" s="20"/>
+    </row>
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A661" s="41"/>
+      <c r="B661" s="15"/>
+      <c r="C661" s="42"/>
+      <c r="D661" s="43"/>
+      <c r="E661" s="9"/>
+      <c r="F661" s="15"/>
+      <c r="G661" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H661" s="43"/>
+      <c r="I661" s="9"/>
+      <c r="J661" s="12"/>
+      <c r="K661" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
